--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\home\braillraperework\braillerap.github\BrailleRap\printed_parts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -112,13 +117,37 @@
   </si>
   <si>
     <t>PAPER_GUIDE_right</t>
+  </si>
+  <si>
+    <t>FOR V5</t>
+  </si>
+  <si>
+    <t>For V5</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Qte Machine</t>
+  </si>
+  <si>
+    <t>DOING</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Terminer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -185,6 +214,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Black"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Avenir Black"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -201,19 +251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor rgb="FFC6D9F1"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,17 +295,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,26 +315,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,8 +325,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -314,6 +371,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="17" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -389,6 +447,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -399,13 +460,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>675600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1387080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -436,13 +497,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867520</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1361520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -473,13 +534,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1417320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>678360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1268280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -510,13 +571,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>727200</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>727760</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1362960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -547,13 +608,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>828720</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>835520</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1327320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -584,13 +645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -621,13 +682,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>675520</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1365120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -658,13 +719,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1955800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1410191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -702,13 +763,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1834650</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1422400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -746,13 +807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1395095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -790,13 +851,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1974989</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1397000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -834,13 +895,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1382546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -878,13 +939,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1398640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -922,13 +983,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1860768</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1422400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -966,13 +1027,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1839194</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1010,13 +1071,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1389766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1053,19 +1114,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>498725</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>2142874</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1396685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10" descr="Capture d’écran 2018-04-30 à 12.32.58.png"/>
+        <xdr:cNvPr id="11" name="Image 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1084,8 +1145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4356100" y="14732000"/>
-          <a:ext cx="1676400" cy="1307785"/>
+          <a:off x="4375400" y="14643100"/>
+          <a:ext cx="1644149" cy="1307785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,13 +1159,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1378735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1142,13 +1203,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1426785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1186,13 +1247,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2197100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1350503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1230,13 +1291,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2267122</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1397000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1273,19 +1334,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>442315</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2273301</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>2237386</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1319064</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 20" descr="Capture d’écran 2018-04-30 à 13.02.38.png"/>
+        <xdr:cNvPr id="21" name="Image 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1304,8 +1365,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4279901" y="10452100"/>
-          <a:ext cx="1866900" cy="1204764"/>
+          <a:off x="4318990" y="11229975"/>
+          <a:ext cx="1795071" cy="1204764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,13 +1379,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1420967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1362,13 +1423,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2012459</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1384301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1406,13 +1467,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1443,13 +1504,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1918594</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1384300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1487,13 +1548,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>774701</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2091420</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1358900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1531,13 +1592,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1367546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1575,13 +1636,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2273300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1381391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1619,13 +1680,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1333321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1663,13 +1724,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>177799</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2465066</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1409700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1707,13 +1768,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1398749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1751,13 +1812,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1395355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1795,13 +1856,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1421290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2160,383 +2221,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="50.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="5"/>
+    <col min="6" max="6" width="11.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="23">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="20.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18">
+        <f>SUM(F4:F58)</f>
+        <v>248</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="18">
+        <f>SUM(H4:H58)</f>
+        <v>11</v>
+      </c>
+      <c r="D2" s="19">
+        <f>C2/C1</f>
+        <v>4.4354838709677422E-2</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="47.25">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="113" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <f>E4*C4</f>
+        <v>16</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="113" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="11">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F29" si="0">E5*C5</f>
+        <v>16</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="113" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="113" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="113" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="113" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="113" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="113" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="113" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
+    <row r="10" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="11">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="113" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
+    <row r="11" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="113" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
+    <row r="12" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="11">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="113" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
+    <row r="13" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="11">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="113" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
+    <row r="14" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="11">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="113" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
+    <row r="15" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="11">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="113" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
+    <row r="16" spans="1:8" ht="113.1" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="11">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:10" s="17" customFormat="1" ht="113" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16">
+    <row r="17" spans="1:11" ht="113.1" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="11">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="113" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
+    <row r="18" spans="1:11" ht="113.1" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="113" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:11" ht="113.1" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="11">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="113.1" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="4"/>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="11">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4"/>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="11">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="113.1" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="11">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="11">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="113" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
+    <row r="28" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="11">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="113" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="11">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4">
+        <v>8</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>NAME</t>
   </si>
@@ -35,9 +35,6 @@
     <t>KP08_support</t>
   </si>
   <si>
-    <t>IGUS_housing</t>
-  </si>
-  <si>
     <t>YMOTOR_support_200</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>for 220mm GT2 timing belt</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>IMAGE</t>
   </si>
   <si>
@@ -98,15 +92,6 @@
     <t>TOP_AXIS_left</t>
   </si>
   <si>
-    <t>SWITCH_Y_support</t>
-  </si>
-  <si>
-    <t>SWITCH_X_support</t>
-  </si>
-  <si>
-    <t>PAPER_raiser</t>
-  </si>
-  <si>
     <t>CLIPBOARD_WHEEL</t>
   </si>
   <si>
@@ -119,12 +104,6 @@
     <t>PAPER_GUIDE_right</t>
   </si>
   <si>
-    <t>FOR V5</t>
-  </si>
-  <si>
-    <t>For V5</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -141,6 +120,30 @@
   </si>
   <si>
     <t>Terminer</t>
+  </si>
+  <si>
+    <t>ENDSTOP_X_support</t>
+  </si>
+  <si>
+    <t>ENDSTOP_Y_support</t>
+  </si>
+  <si>
+    <t>ENDSTOP_Y_lever</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>CLIPBOARD_2_SUPPORT</t>
+  </si>
+  <si>
+    <t>CLIPBOARD_2</t>
+  </si>
+  <si>
+    <t>CLIPBOARD_2_WHEEL</t>
+  </si>
+  <si>
+    <t>Qte par machine</t>
   </si>
 </sst>
 </file>
@@ -268,12 +271,55 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -297,7 +343,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,9 +374,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,6 +394,24 @@
     </xf>
     <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -459,19 +520,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>663480</xdr:colOff>
+      <xdr:colOff>866880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>675600</xdr:colOff>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>867520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1387080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 5"/>
+      <xdr:rowOff>1361520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 6"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -480,8 +541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4378680" y="4807800"/>
-          <a:ext cx="1307520" cy="1316160"/>
+          <a:off x="4582080" y="6255720"/>
+          <a:ext cx="1040760" cy="1278000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,18 +558,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>867520</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1361520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 6"/>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>867620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1352880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 38"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -517,8 +578,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4582080" y="6255720"/>
-          <a:ext cx="1040760" cy="1278000"/>
+          <a:off x="4582080" y="36367560"/>
+          <a:ext cx="1053360" cy="1294560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -534,18 +595,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1417320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>678360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1268280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 8"/>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>675520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1365120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 47"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -554,8 +615,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4378680" y="10459440"/>
-          <a:ext cx="1234080" cy="1286280"/>
+          <a:off x="4378680" y="3385440"/>
+          <a:ext cx="1409040" cy="1281600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,147 +631,131 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>727760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1362960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 30"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4442400" y="477000"/>
-          <a:ext cx="1167840" cy="1317600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>828720</xdr:colOff>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1834650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1422400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14" descr="Capture d’écran 2018-04-23 à 10.44.36.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="6108700"/>
+          <a:ext cx="907550" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>835520</xdr:colOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1327320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 34"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4543920" y="7690680"/>
-          <a:ext cx="1085400" cy="1243800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1352880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 38"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4582080" y="36367560"/>
-          <a:ext cx="1053360" cy="1294560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>663480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>675520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1365120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 47"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4378680" y="3385440"/>
-          <a:ext cx="1409040" cy="1281600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+      <xdr:rowOff>1395095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21" descr="Capture d’écran 2018-04-23 à 10.46.26.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4406900" y="7543800"/>
+          <a:ext cx="1574800" cy="1318895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1974989</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1397000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22" descr="Capture d’écran 2018-04-23 à 12.45.35.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="8991600"/>
+          <a:ext cx="1238389" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -719,18 +764,62 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1955800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1410191</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 31" descr="Capture d’écran 2018-04-08 à 15.36.48.png"/>
+      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1382546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Image 51" descr="Capture d’écran 2018-04-23 à 13.38.51.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4597400" y="16154400"/>
+          <a:ext cx="1422400" cy="1306346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1398640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Image 52" descr="Capture d’écran 2018-04-23 à 13.41.41.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -749,32 +838,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4597400" y="508000"/>
-          <a:ext cx="1231900" cy="1333991"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1834650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+          <a:off x="4241800" y="19024600"/>
+          <a:ext cx="1917700" cy="1322440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1860768</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1422400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 14" descr="Capture d’écran 2018-04-23 à 10.44.36.png"/>
+        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -793,32 +882,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="6108700"/>
-          <a:ext cx="907550" cy="1346200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1395095</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 21" descr="Capture d’écran 2018-04-23 à 10.46.26.png"/>
+          <a:off x="4673599" y="4660900"/>
+          <a:ext cx="1060669" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1839194</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="Capture d’écran 2018-04-26 à 10.52.19.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -837,32 +926,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4406900" y="7543800"/>
-          <a:ext cx="1574800" cy="1318895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>9</xdr:row>
+          <a:off x="4470400" y="24866600"/>
+          <a:ext cx="1242294" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>498725</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1974989</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1397000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 22" descr="Capture d’écran 2018-04-23 à 12.45.35.png"/>
+      <xdr:colOff>2142874</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1396685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -881,20 +970,20 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610100" y="8991600"/>
-          <a:ext cx="1238389" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+          <a:off x="4375400" y="14643100"/>
+          <a:ext cx="1644149" cy="1307785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -902,11 +991,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2146300</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1382546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Image 51" descr="Capture d’écran 2018-04-23 à 13.38.51.png"/>
+      <xdr:rowOff>1378735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Capture d’écran 2018-04-30 à 12.44.20.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -925,8 +1014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4597400" y="16154400"/>
-          <a:ext cx="1422400" cy="1306346"/>
+          <a:off x="4305300" y="17589500"/>
+          <a:ext cx="1714500" cy="1302535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,18 +1028,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1398640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 52" descr="Capture d’écran 2018-04-23 à 13.41.41.png"/>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1426785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Capture d’écran 2018-04-30 à 12.46.18.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -969,32 +1058,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241800" y="19024600"/>
-          <a:ext cx="1917700" cy="1322440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1860768</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1422400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Capture d’écran 2018-04-25 à 10.52.29.png"/>
+          <a:off x="4241800" y="19011900"/>
+          <a:ext cx="1739900" cy="1363285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1350503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17" descr="Capture d’écran 2018-04-30 à 12.50.34.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1013,32 +1102,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4673599" y="4660900"/>
-          <a:ext cx="1060669" cy="1358900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1839194</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7" descr="Capture d’écran 2018-04-26 à 10.52.19.png"/>
+          <a:off x="4216400" y="1828800"/>
+          <a:ext cx="1854200" cy="1248903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2267122</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1397000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19" descr="Capture d’écran 2018-04-30 à 13.00.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1057,32 +1146,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4470400" y="24866600"/>
-          <a:ext cx="1242294" cy="1155700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1389766</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9" descr="Capture d’écran 2018-04-30 à 12.29.09.png"/>
+          <a:off x="4254500" y="13271500"/>
+          <a:ext cx="1886122" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>442315</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2237386</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1319064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1101,32 +1190,69 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="3251200"/>
-          <a:ext cx="1511300" cy="1300866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>498725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2142874</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1396685</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10"/>
+          <a:off x="4318990" y="11229975"/>
+          <a:ext cx="1795071" cy="1204764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>867620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1352880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 38"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4740380" y="37663020"/>
+          <a:ext cx="740" cy="1294560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1918594</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="Capture d’écran 2018-06-29 à 15.45.38.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1145,32 +1271,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4375400" y="14643100"/>
-          <a:ext cx="1644149" cy="1307785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1378735</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 15" descr="Capture d’écran 2018-04-30 à 12.44.20.png"/>
+          <a:off x="4508500" y="39103300"/>
+          <a:ext cx="1283594" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>774701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2091420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1358900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 40" descr="Capture d’écran 2018-06-03 à 10.23.29.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1189,32 +1315,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="17589500"/>
-          <a:ext cx="1714500" cy="1302535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1426785</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 16" descr="Capture d’écran 2018-04-30 à 12.46.18.png"/>
+          <a:off x="4648201" y="39154100"/>
+          <a:ext cx="1316719" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177799</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2465066</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 33" descr="Capture d’écran 2018-10-16 à 17.58.57.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1233,32 +1359,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241800" y="19011900"/>
-          <a:ext cx="1739900" cy="1363285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2197100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1350503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 17" descr="Capture d’écran 2018-04-30 à 12.50.34.png"/>
+          <a:off x="4051299" y="21844000"/>
+          <a:ext cx="2287267" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1398749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 34" descr="Capture d’écran 2018-10-16 à 18.07.39.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1277,32 +1403,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4216400" y="1828800"/>
-          <a:ext cx="1854200" cy="1248903"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2267122</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1397000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 19" descr="Capture d’écran 2018-04-30 à 13.00.29.png"/>
+          <a:off x="3975100" y="23329900"/>
+          <a:ext cx="2374900" cy="1322549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1421290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 38" descr="Capture d’écran 2018-10-16 à 18.18.49.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1321,32 +1447,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4254500" y="13271500"/>
-          <a:ext cx="1886122" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>442315</xdr:colOff>
+          <a:off x="4495800" y="33350200"/>
+          <a:ext cx="1244600" cy="1370490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>420118</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1407883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2237386</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1319064</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 20"/>
+      <xdr:rowOff>1383787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,32 +1491,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4318990" y="11229975"/>
-          <a:ext cx="1795071" cy="1204764"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1420967</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 23" descr="Capture d’écran 2018-04-30 à 13.04.03.png"/>
+          <a:off x="4296793" y="11094808"/>
+          <a:ext cx="1694432" cy="1404654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>343970</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1339825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1409,32 +1535,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4394200" y="11823700"/>
-          <a:ext cx="1511300" cy="1370167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2012459</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1384301</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 26" descr="Capture d’écran 2018-04-30 à 13.15.29.png"/>
+          <a:off x="4220645" y="29826678"/>
+          <a:ext cx="1827730" cy="1202572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553334</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2009776</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1453,69 +1579,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4483100" y="36271201"/>
-          <a:ext cx="1402859" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1352880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Image 38"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4740380" y="37663020"/>
-          <a:ext cx="740" cy="1294560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1918594</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1384300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13" descr="Capture d’écran 2018-06-29 à 15.45.38.png"/>
+          <a:off x="4430009" y="28339058"/>
+          <a:ext cx="1456442" cy="1377596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514997</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 28"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1534,32 +1623,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4508500" y="39103300"/>
-          <a:ext cx="1283594" cy="1320800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774701</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2091420</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1358900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 40" descr="Capture d’écran 2018-06-03 à 10.23.29.png"/>
+          <a:off x="4391672" y="29725240"/>
+          <a:ext cx="1285228" cy="1443572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>667451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1375341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 29"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1578,32 +1667,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648201" y="39154100"/>
-          <a:ext cx="1316719" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1367546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 24" descr="Capture d’écran 2018-10-16 à 17.51.13.png"/>
+          <a:off x="4544126" y="32658338"/>
+          <a:ext cx="1037524" cy="1263928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>562786</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>233680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1990726</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1205148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 30"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1622,32 +1711,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4356100" y="26200101"/>
-          <a:ext cx="1587500" cy="1291345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2273300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1381391</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 25" descr="Capture d’écran 2018-10-16 à 17.54.39.png"/>
+          <a:off x="4439461" y="32780605"/>
+          <a:ext cx="1427940" cy="971468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>658001</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>331999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1030771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1666,32 +1755,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229100" y="27635201"/>
-          <a:ext cx="1917700" cy="1305190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1333321</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 32" descr="Capture d’écran 2018-10-16 à 17.56.32.png"/>
+          <a:off x="4534676" y="35736424"/>
+          <a:ext cx="780274" cy="698772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213296</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2274090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Image 41"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1710,32 +1799,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="30492701"/>
-          <a:ext cx="1651000" cy="1269820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>177799</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2465066</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1409700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 33" descr="Capture d’écran 2018-10-16 à 17.58.57.png"/>
+          <a:off x="4089971" y="25442098"/>
+          <a:ext cx="2060794" cy="1246952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>239398</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1330415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Image 42"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1754,32 +1843,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4051299" y="21844000"/>
-          <a:ext cx="2287267" cy="1384300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1398749</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 34" descr="Capture d’écran 2018-10-16 à 18.07.39.png"/>
+          <a:off x="4116073" y="26854824"/>
+          <a:ext cx="2179952" cy="1307516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438908</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Image 43"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1798,96 +1887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3975100" y="23329900"/>
-          <a:ext cx="2374900" cy="1322549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1395355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 35" descr="Capture d’écran 2018-10-16 à 18.16.03.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4368800" y="29057600"/>
-          <a:ext cx="1638300" cy="1331855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1421290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Image 38" descr="Capture d’écran 2018-10-16 à 18.18.49.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4495800" y="33350200"/>
-          <a:ext cx="1244600" cy="1370490"/>
+          <a:off x="4315583" y="1128747"/>
+          <a:ext cx="1694692" cy="1534142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2238,77 +2239,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17">
+        <f>SUM(F4:F60)</f>
         <v>37</v>
       </c>
-      <c r="C1" s="18">
-        <f>SUM(F4:F58)</f>
-        <v>248</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="18">
-        <f>SUM(H4:H58)</f>
-        <v>11</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17">
+        <f>SUM(H4:H60)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
         <f>C2/C1</f>
-        <v>4.4354838709677422E-2</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" ht="47.25">
-      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" ht="47.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <f>E4*C4</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11">
@@ -2316,37 +2317,37 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="113.1" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F29" si="0">E5*C5</f>
-        <v>16</v>
+        <f t="shared" ref="F5:F31" si="0">E5*C5</f>
+        <v>2</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="113.1" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E6" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
@@ -2357,21 +2358,21 @@
     </row>
     <row r="7" spans="1:8" ht="113.1" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2380,19 +2381,17 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2403,15 +2402,15 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2422,17 +2421,19 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="113.1" customHeight="1">
@@ -2445,15 +2446,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="113.1" customHeight="1">
@@ -2466,11 +2465,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2485,11 +2484,11 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2504,18 +2503,18 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="113.1" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -2523,18 +2522,18 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="113.1" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2542,113 +2541,113 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="113.1" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="113.1" customHeight="1">
+    <row r="18" spans="1:11" s="10" customFormat="1" ht="113.1" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="113.1" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="113.1" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="113.1" customHeight="1">
+    <row r="21" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
@@ -2656,18 +2655,18 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
@@ -2675,18 +2674,18 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
@@ -2694,118 +2693,158 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+    <row r="25" spans="1:11" ht="113.1" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="113.1" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+    <row r="27" spans="1:11" ht="113.1" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="113.1" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="4">
-        <v>3</v>
-      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="4">
-        <v>8</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="5" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/printed_parts/3D printed parts excel board.xlsx
+++ b/printed_parts/3D printed parts excel board.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>NAME</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Qte / machine</t>
+  </si>
+  <si>
+    <t>DOORLOCKER</t>
   </si>
 </sst>
 </file>
@@ -503,13 +506,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1294560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1017,13 +1020,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867620</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1294560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1054,13 +1057,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>650876</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1967595</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1377950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1834,6 +1837,50 @@
         <a:xfrm>
           <a:off x="4200525" y="6810375"/>
           <a:ext cx="1905000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1076325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="39338250"/>
+          <a:ext cx="2009775" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,10 +2217,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2192,8 +2239,8 @@
         <v>23</v>
       </c>
       <c r="C1" s="9">
-        <f>SUM(F4:F60)</f>
-        <v>40</v>
+        <f>SUM(F4:F61)</f>
+        <v>42</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2207,7 +2254,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="9">
-        <f>SUM(H4:H60)</f>
+        <f>SUM(H4:H61)</f>
         <v>0</v>
       </c>
       <c r="D2" s="10">
@@ -2275,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" ref="F5:F31" si="0">E5*C5</f>
+        <f t="shared" ref="F5:F32" si="0">E5*C5</f>
         <v>2</v>
       </c>
       <c r="G5" s="11"/>
@@ -2758,27 +2805,46 @@
       <c r="G30" s="11"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" ht="113.1" customHeight="1">
+    <row r="31" spans="1:11" ht="113.1" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15">
-        <v>1</v>
-      </c>
-      <c r="D31" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="13">
         <v>1</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
